--- a/Reports/500/100 - Copy (4)/20 - Copy (3)/1 - Copy/test1.xlsx
+++ b/Reports/500/100 - Copy (4)/20 - Copy (3)/1 - Copy/test1.xlsx
@@ -102,13 +102,13 @@
     <t>10/19/21 02:58:09</t>
   </si>
   <si>
-    <t>2b8b50589fcf3519b49daa89ee3c9f71717f0c79</t>
+    <t>efe5b421d44a19794fd7f677e48d8d5858456e69</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">500
+    <t xml:space="preserve">1k
 </t>
   </si>
   <si>
